--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization-period.xlsx
@@ -453,7 +453,7 @@
     <t>Extension.extension:temporalityClosing.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J185-typeFermeture-ROR/FHIR/JDV-J185-typeFermeture-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J185-TypeFermeture-ROR/FHIR/JDV-J185-TypeFermeture-ROR</t>
   </si>
   <si>
     <t>base64Binary

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-organization-period.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-organization-period.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-period</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-period</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
